--- a/student.xlsx
+++ b/student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23205" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홀깅순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>송주링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -53,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +88,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -390,48 +416,108 @@
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
